--- a/3 Random Variables/Homework/JulyCentralLimitHW.xlsx
+++ b/3 Random Variables/Homework/JulyCentralLimitHW.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\3 Random Variables\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Homework 3_7</t>
   </si>
@@ -39,15 +39,57 @@
   </si>
   <si>
     <t>3.        I have 500 potential customers who come to my candy store each day. Seventy percent of the customers buy no pieces of candy, 15 percent buy one piece, 10 percent buy two pieces, and 5 percent buy three pieces. What is the chance that I sell at least 280 pieces of candy in a day?</t>
+  </si>
+  <si>
+    <t>mean change252=</t>
+  </si>
+  <si>
+    <t>varience=</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>mean change</t>
+  </si>
+  <si>
+    <t>std=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no candy = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 candy = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 candies = </t>
+  </si>
+  <si>
+    <t>3 candies =</t>
+  </si>
+  <si>
+    <t>mean =</t>
+  </si>
+  <si>
+    <t>var =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std = </t>
+  </si>
+  <si>
+    <t>mean500=</t>
+  </si>
+  <si>
+    <t>var500=</t>
+  </si>
+  <si>
+    <t>std500=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,8 +159,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,175 +440,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="61.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="111" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="129.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>(G18-$F$23)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>0.15</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H21" si="0">(G19-$F$23)^2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f>252*C17</f>
+        <v>0</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f>252*C18^2</f>
+        <v>567</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <f>SQRT(C21)</f>
+        <v>23.811761799581316</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <f>SUMPRODUCT(F18:F21,G18:G21)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3">
+        <f>F23*500</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <f>1-_xlfn.NORM.DIST(20,0,23.8118,TRUE)</f>
+        <v>0.20047670459697398</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <f>SUMPRODUCT(F18:F21,H18:H21)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3">
+        <f>F24*500</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3">
+        <f>SQRT(F24)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="3">
+        <f>SQRT(I24)</f>
+        <v>19.364916731037084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
+        <f>1-_xlfn.NORM.DIST(280,250,19.36492,TRUE)</f>
+        <v>6.066765660289497E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
